--- a/Code/Results/Cases/Case_7_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_12/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.17633947922824</v>
+        <v>14.1712931743233</v>
       </c>
       <c r="C2">
-        <v>14.80756964829797</v>
+        <v>8.337929653527544</v>
       </c>
       <c r="D2">
-        <v>3.77625335380731</v>
+        <v>4.587042237890809</v>
       </c>
       <c r="E2">
-        <v>30.01380808420395</v>
+        <v>29.45987919299319</v>
       </c>
       <c r="F2">
-        <v>35.9171394840295</v>
+        <v>19.49005642205439</v>
       </c>
       <c r="G2">
-        <v>2.048990241545996</v>
+        <v>2.082787385399959</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.74465773192658</v>
+        <v>12.74489762438207</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.06010328952955</v>
+        <v>15.56629514457019</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.66446262398892</v>
+        <v>13.25719021918139</v>
       </c>
       <c r="C3">
-        <v>13.80365468998385</v>
+        <v>7.970979486800879</v>
       </c>
       <c r="D3">
-        <v>3.844084466960384</v>
+        <v>4.482113766979353</v>
       </c>
       <c r="E3">
-        <v>27.73883660506943</v>
+        <v>27.3258591097262</v>
       </c>
       <c r="F3">
-        <v>33.96244565370265</v>
+        <v>19.0628240296881</v>
       </c>
       <c r="G3">
-        <v>2.06083730083607</v>
+        <v>2.08854468056302</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.45561330409878</v>
+        <v>12.03101636907703</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.6863288515066</v>
+        <v>15.47872317464013</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.69057916553836</v>
+        <v>12.66457706553702</v>
       </c>
       <c r="C4">
-        <v>13.15878533449536</v>
+        <v>7.737131376175883</v>
       </c>
       <c r="D4">
-        <v>3.887858891856129</v>
+        <v>4.415925172118809</v>
       </c>
       <c r="E4">
-        <v>26.28756362914264</v>
+        <v>25.95258672656193</v>
       </c>
       <c r="F4">
-        <v>32.75382708533577</v>
+        <v>18.81838909808279</v>
       </c>
       <c r="G4">
-        <v>2.068221608242355</v>
+        <v>2.092173027953769</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.6263079511347</v>
+        <v>11.57116325032444</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.84529927650232</v>
+        <v>15.44223782793964</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.28199795106563</v>
+        <v>12.41517178718991</v>
       </c>
       <c r="C5">
-        <v>12.88868195249457</v>
+        <v>7.639754317620069</v>
       </c>
       <c r="D5">
-        <v>3.906180309304011</v>
+        <v>4.38853319912312</v>
       </c>
       <c r="E5">
-        <v>25.68182729550485</v>
+        <v>25.37682506730913</v>
       </c>
       <c r="F5">
-        <v>32.25943895331621</v>
+        <v>18.72325609719793</v>
       </c>
       <c r="G5">
-        <v>2.071262731918376</v>
+        <v>2.093676015676724</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.2786488140037</v>
+        <v>11.37840889601193</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.50334561379772</v>
+        <v>15.43152523921374</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.21343873047698</v>
+        <v>12.37327984107308</v>
       </c>
       <c r="C6">
-        <v>12.84338561289472</v>
+        <v>7.623461344991359</v>
       </c>
       <c r="D6">
-        <v>3.909250418403379</v>
+        <v>4.383960157885832</v>
       </c>
       <c r="E6">
-        <v>25.58036213670856</v>
+        <v>25.28023672388817</v>
       </c>
       <c r="F6">
-        <v>32.17724343843248</v>
+        <v>18.7077287461617</v>
       </c>
       <c r="G6">
-        <v>2.071769754602584</v>
+        <v>2.093927085989628</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.22032844069273</v>
+        <v>11.34608036735518</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.44661708651998</v>
+        <v>15.42999174590033</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.68511665338949</v>
+        <v>12.66124555778915</v>
       </c>
       <c r="C7">
-        <v>13.15517243004871</v>
+        <v>7.735826449465747</v>
       </c>
       <c r="D7">
-        <v>3.888104086184951</v>
+        <v>4.415557421099548</v>
       </c>
       <c r="E7">
-        <v>26.27945328466109</v>
+        <v>25.94488755448382</v>
       </c>
       <c r="F7">
-        <v>32.7471667182643</v>
+        <v>18.81708801712669</v>
       </c>
       <c r="G7">
-        <v>2.068262487191291</v>
+        <v>2.092193197754869</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.62165886119908</v>
+        <v>11.56858531753139</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.84068418300197</v>
+        <v>15.44207678389921</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.66434630434646</v>
+        <v>13.8625977787224</v>
       </c>
       <c r="C8">
-        <v>14.46722480255887</v>
+        <v>8.21321261704988</v>
       </c>
       <c r="D8">
-        <v>3.799165899985456</v>
+        <v>4.551242250304694</v>
       </c>
       <c r="E8">
-        <v>29.24028527163151</v>
+        <v>28.73694928777177</v>
       </c>
       <c r="F8">
-        <v>35.24501934358177</v>
+        <v>19.33902541047091</v>
       </c>
       <c r="G8">
-        <v>2.053054950721017</v>
+        <v>2.08475370852774</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.30791881320651</v>
+        <v>12.50324475174457</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.58597620742291</v>
+        <v>15.53239962398096</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.19661300689707</v>
+        <v>15.9714170642414</v>
       </c>
       <c r="C9">
-        <v>16.82279310222429</v>
+        <v>9.079410551631014</v>
       </c>
       <c r="D9">
-        <v>3.644608833478482</v>
+        <v>4.802384985017836</v>
       </c>
       <c r="E9">
-        <v>34.64789649589373</v>
+        <v>33.72736967677534</v>
       </c>
       <c r="F9">
-        <v>40.07305664087945</v>
+        <v>20.50486588838166</v>
       </c>
       <c r="G9">
-        <v>2.02388754949909</v>
+        <v>2.070859944250407</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.324913285285</v>
+        <v>14.16398029981447</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.02653663166758</v>
+        <v>15.85494140417815</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.59915462142483</v>
+        <v>17.37316341944418</v>
       </c>
       <c r="C10">
-        <v>18.43510622235042</v>
+        <v>9.671087043072893</v>
       </c>
       <c r="D10">
-        <v>3.548645712431817</v>
+        <v>4.976628607900862</v>
       </c>
       <c r="E10">
-        <v>38.43274207477243</v>
+        <v>37.12083461977185</v>
       </c>
       <c r="F10">
-        <v>43.58537528172607</v>
+        <v>21.44832885818647</v>
       </c>
       <c r="G10">
-        <v>2.002498845781801</v>
+        <v>2.061006708197146</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.38183622230748</v>
+        <v>15.27864543497708</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.5719682691333</v>
+        <v>16.19150222089548</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.65567769591314</v>
+        <v>17.9796036134516</v>
       </c>
       <c r="C11">
-        <v>19.14687330920167</v>
+        <v>9.93033414407777</v>
       </c>
       <c r="D11">
-        <v>3.51054403131207</v>
+        <v>5.053449659438804</v>
       </c>
       <c r="E11">
-        <v>40.12910133815191</v>
+        <v>38.61092559425666</v>
       </c>
       <c r="F11">
-        <v>45.18128366027866</v>
+        <v>21.89643393575608</v>
       </c>
       <c r="G11">
-        <v>1.992678532469376</v>
+        <v>2.056584127486635</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>24.28756403086779</v>
+        <v>15.76301468908267</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.73809100472076</v>
+        <v>16.36847484867886</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.05105918197585</v>
+        <v>18.20483149316467</v>
       </c>
       <c r="C12">
-        <v>19.41369389946076</v>
+        <v>10.02707462975615</v>
       </c>
       <c r="D12">
-        <v>3.497110864902479</v>
+        <v>5.082172205652792</v>
       </c>
       <c r="E12">
-        <v>40.76943179506377</v>
+        <v>39.1679964025378</v>
       </c>
       <c r="F12">
-        <v>45.82606694928402</v>
+        <v>22.06884926010647</v>
       </c>
       <c r="G12">
-        <v>1.988936645581423</v>
+        <v>2.054916423920865</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.62670216511715</v>
+        <v>15.94319921492398</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.18143521482019</v>
+        <v>16.4390999135877</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.9661062333295</v>
+        <v>18.15651989993623</v>
       </c>
       <c r="C13">
-        <v>19.35634247418221</v>
+        <v>10.00630345795973</v>
       </c>
       <c r="D13">
-        <v>3.499955993014767</v>
+        <v>5.076002904678627</v>
       </c>
       <c r="E13">
-        <v>40.63158675285404</v>
+        <v>39.04833237527086</v>
       </c>
       <c r="F13">
-        <v>45.68609041457067</v>
+        <v>22.03159496016904</v>
       </c>
       <c r="G13">
-        <v>1.989743740353425</v>
+        <v>2.055275307448223</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>24.55382511225374</v>
+        <v>15.90453658288369</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.08586335628534</v>
+        <v>16.42372621700346</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.68829677912162</v>
+        <v>17.99822134877881</v>
       </c>
       <c r="C14">
-        <v>19.16887648965388</v>
+        <v>9.938321715426362</v>
       </c>
       <c r="D14">
-        <v>3.509417623292375</v>
+        <v>5.055820144512797</v>
       </c>
       <c r="E14">
-        <v>40.18181223788235</v>
+        <v>38.65689717110381</v>
       </c>
       <c r="F14">
-        <v>45.23102790631823</v>
+        <v>21.91056389249155</v>
       </c>
       <c r="G14">
-        <v>1.992371214273589</v>
+        <v>2.056446793055104</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>24.31553911071746</v>
+        <v>15.77790322118562</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.77452586966707</v>
+        <v>16.37421187159972</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.51753575096108</v>
+        <v>17.90068584000278</v>
       </c>
       <c r="C15">
-        <v>19.05370869566801</v>
+        <v>9.896494600891193</v>
       </c>
       <c r="D15">
-        <v>3.515349444377676</v>
+        <v>5.043409237872436</v>
       </c>
       <c r="E15">
-        <v>39.90609970002864</v>
+        <v>38.41621117099194</v>
       </c>
       <c r="F15">
-        <v>44.97092593880147</v>
+        <v>21.83678453103799</v>
       </c>
       <c r="G15">
-        <v>1.993977268852599</v>
+        <v>2.057165228726791</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.16909722837926</v>
+        <v>15.69991629883195</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.58407254188923</v>
+        <v>16.34435816833026</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.52941935834659</v>
+        <v>17.33290883064117</v>
       </c>
       <c r="C16">
-        <v>18.38818734638036</v>
+        <v>9.6539445139194</v>
       </c>
       <c r="D16">
-        <v>3.551263168335547</v>
+        <v>4.97155755892087</v>
       </c>
       <c r="E16">
-        <v>38.32149999731583</v>
+        <v>37.02241759081776</v>
       </c>
       <c r="F16">
-        <v>43.48110022394626</v>
+        <v>21.41942515700924</v>
       </c>
       <c r="G16">
-        <v>2.003137982626686</v>
+        <v>2.061296806408424</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.32207975334095</v>
+        <v>15.24653618246166</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.4959692499877</v>
+        <v>16.18043214114868</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.91426962237814</v>
+        <v>16.97664812583596</v>
       </c>
       <c r="C17">
-        <v>17.9746244033323</v>
+        <v>9.502602619644833</v>
       </c>
       <c r="D17">
-        <v>3.574842027762827</v>
+        <v>4.926840878543174</v>
       </c>
       <c r="E17">
-        <v>37.34393964095903</v>
+        <v>36.15398783541054</v>
       </c>
       <c r="F17">
-        <v>42.56712118698164</v>
+        <v>21.1682355852074</v>
       </c>
       <c r="G17">
-        <v>2.008727982481431</v>
+        <v>2.063845630462369</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.79509204536377</v>
+        <v>14.9626051738155</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>32.83090148361352</v>
+        <v>16.0861091289104</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.55698834001601</v>
+        <v>16.76879294085379</v>
       </c>
       <c r="C18">
-        <v>17.73468457364751</v>
+        <v>9.414621756038036</v>
       </c>
       <c r="D18">
-        <v>3.588912208700545</v>
+        <v>4.900891959295383</v>
       </c>
       <c r="E18">
-        <v>36.77917006271289</v>
+        <v>35.64940970899494</v>
       </c>
       <c r="F18">
-        <v>42.04118926398823</v>
+        <v>21.02553773837031</v>
       </c>
       <c r="G18">
-        <v>2.011935392922205</v>
+        <v>2.065317368215586</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.48912851884958</v>
+        <v>14.79715671919437</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.4490971794638</v>
+        <v>16.03409337943977</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.43540938127101</v>
+        <v>16.69790914596134</v>
       </c>
       <c r="C19">
-        <v>17.65307847628925</v>
+        <v>9.384673037745216</v>
       </c>
       <c r="D19">
-        <v>3.593758215643228</v>
+        <v>4.892067285968153</v>
       </c>
       <c r="E19">
-        <v>36.58747524767419</v>
+        <v>35.47768088908901</v>
       </c>
       <c r="F19">
-        <v>41.86305845501786</v>
+        <v>20.97752835702368</v>
       </c>
       <c r="G19">
-        <v>2.013020304012351</v>
+        <v>2.065816700844496</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.38503138317957</v>
+        <v>14.74077069662443</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.31993492929436</v>
+        <v>16.01686040111291</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.9801082366343</v>
+        <v>17.01487682676107</v>
       </c>
       <c r="C20">
-        <v>18.01886035065532</v>
+        <v>9.518809858238784</v>
       </c>
       <c r="D20">
-        <v>3.572278148787743</v>
+        <v>4.931624877486139</v>
       </c>
       <c r="E20">
-        <v>37.44825104555195</v>
+        <v>36.24695590491315</v>
       </c>
       <c r="F20">
-        <v>42.66443551924336</v>
+        <v>21.19479093586214</v>
       </c>
       <c r="G20">
-        <v>2.008133793051472</v>
+        <v>2.063573722388595</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>22.85148304987589</v>
+        <v>14.99305130930012</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>32.90162048421639</v>
+        <v>16.09591723110148</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.77001899571292</v>
+        <v>18.04483675984373</v>
       </c>
       <c r="C21">
-        <v>19.22400969225304</v>
+        <v>9.958328429740645</v>
       </c>
       <c r="D21">
-        <v>3.506609683089459</v>
+        <v>5.061758421199238</v>
       </c>
       <c r="E21">
-        <v>40.31396286354084</v>
+        <v>38.77206203528642</v>
       </c>
       <c r="F21">
-        <v>45.36357357359863</v>
+        <v>21.94603949847026</v>
       </c>
       <c r="G21">
-        <v>1.991600180419529</v>
+        <v>2.056102521674207</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24.3856295566929</v>
+        <v>15.81518603907393</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>34.86591982251944</v>
+        <v>16.38865607744137</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.91275117921612</v>
+        <v>18.69226334325219</v>
       </c>
       <c r="C22">
-        <v>19.99609975608162</v>
+        <v>10.23724377404653</v>
       </c>
       <c r="D22">
-        <v>3.46962274528104</v>
+        <v>5.144656923430165</v>
       </c>
       <c r="E22">
-        <v>42.17597301233687</v>
+        <v>40.38071380360994</v>
       </c>
       <c r="F22">
-        <v>47.25428538221703</v>
+        <v>22.45293700929855</v>
       </c>
       <c r="G22">
-        <v>1.980653336565726</v>
+        <v>2.051259805892852</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.36617919499787</v>
+        <v>16.33366040661252</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.24660394953429</v>
+        <v>16.60109722014097</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.30512827316079</v>
+        <v>18.34904648570396</v>
       </c>
       <c r="C23">
-        <v>19.58528604961908</v>
+        <v>10.08914350881716</v>
       </c>
       <c r="D23">
-        <v>3.488741612491579</v>
+        <v>5.10061441678544</v>
       </c>
       <c r="E23">
-        <v>41.18255398626416</v>
+        <v>39.52577126492096</v>
       </c>
       <c r="F23">
-        <v>46.24558906967312</v>
+        <v>22.18093403333291</v>
       </c>
       <c r="G23">
-        <v>1.986512688094319</v>
+        <v>2.053841337433386</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>24.84468449352969</v>
+        <v>16.05865221773221</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.46827794398116</v>
+        <v>16.4857228914192</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.95035392459926</v>
+        <v>16.99760309336299</v>
       </c>
       <c r="C24">
-        <v>17.99886808939705</v>
+        <v>9.511485593896943</v>
       </c>
       <c r="D24">
-        <v>3.573435690445103</v>
+        <v>4.92946278003346</v>
       </c>
       <c r="E24">
-        <v>37.40110056391627</v>
+        <v>36.20494160676838</v>
       </c>
       <c r="F24">
-        <v>42.62044123717379</v>
+        <v>21.18277992222513</v>
       </c>
       <c r="G24">
-        <v>2.008402445148352</v>
+        <v>2.063696632025971</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.82599802814571</v>
+        <v>14.97929350562278</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>32.86964674566371</v>
+        <v>16.09147611223176</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.27648216585811</v>
+        <v>15.4270917519347</v>
       </c>
       <c r="C25">
-        <v>16.20749926508574</v>
+        <v>8.852827335621186</v>
       </c>
       <c r="D25">
-        <v>3.683812129255529</v>
+        <v>4.736169439093199</v>
       </c>
       <c r="E25">
-        <v>33.2225392410089</v>
+        <v>32.42702172840705</v>
       </c>
       <c r="F25">
-        <v>38.77428950032038</v>
+        <v>20.17420586115987</v>
       </c>
       <c r="G25">
-        <v>2.031741721693741</v>
+        <v>2.074550955778914</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.53815846423808</v>
+        <v>13.73324788156312</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.09361966460275</v>
+        <v>15.75096721822174</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.1712931743233</v>
+        <v>14.09553658099062</v>
       </c>
       <c r="C2">
-        <v>8.337929653527544</v>
+        <v>8.62381638084284</v>
       </c>
       <c r="D2">
-        <v>4.587042237890809</v>
+        <v>5.170260265607264</v>
       </c>
       <c r="E2">
-        <v>29.45987919299319</v>
+        <v>28.82123386073611</v>
       </c>
       <c r="F2">
-        <v>19.49005642205439</v>
+        <v>15.79552156921025</v>
       </c>
       <c r="G2">
-        <v>2.082787385399959</v>
+        <v>18.65024142670347</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.902069049655894</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.058844791435051</v>
       </c>
       <c r="K2">
-        <v>12.74489762438207</v>
+        <v>11.69239546157652</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.85682415237515</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.56629514457019</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>12.69631159859663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.25719021918139</v>
+        <v>13.25538196128783</v>
       </c>
       <c r="C3">
-        <v>7.970979486800879</v>
+        <v>8.203917129091161</v>
       </c>
       <c r="D3">
-        <v>4.482113766979353</v>
+        <v>4.94637701486532</v>
       </c>
       <c r="E3">
-        <v>27.3258591097262</v>
+        <v>26.97497539303838</v>
       </c>
       <c r="F3">
-        <v>19.0628240296881</v>
+        <v>15.53773196222414</v>
       </c>
       <c r="G3">
-        <v>2.08854468056302</v>
+        <v>18.37645197346792</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.676434969199296</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.112947474354479</v>
       </c>
       <c r="K3">
-        <v>12.03101636907703</v>
+        <v>11.87686018500337</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>12.18856852285872</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.47872317464013</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.71178731430654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.66457706553702</v>
+        <v>12.71085476644688</v>
       </c>
       <c r="C4">
-        <v>7.737131376175883</v>
+        <v>7.934913382672709</v>
       </c>
       <c r="D4">
-        <v>4.415925172118809</v>
+        <v>4.802700647577463</v>
       </c>
       <c r="E4">
-        <v>25.95258672656193</v>
+        <v>25.77711545699737</v>
       </c>
       <c r="F4">
-        <v>18.81838909808279</v>
+        <v>15.39040830679038</v>
       </c>
       <c r="G4">
-        <v>2.092173027953769</v>
+        <v>18.22639685307305</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.533016897107711</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.150171801772542</v>
       </c>
       <c r="K4">
-        <v>11.57116325032444</v>
+        <v>11.99745904937946</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.75843997386254</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.44223782793964</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.73061182924335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.41517178718991</v>
+        <v>12.48180026946539</v>
       </c>
       <c r="C5">
-        <v>7.639754317620069</v>
+        <v>7.822573319798315</v>
       </c>
       <c r="D5">
-        <v>4.38853319912312</v>
+        <v>4.742630273859329</v>
       </c>
       <c r="E5">
-        <v>25.37682506730913</v>
+        <v>25.27282094254624</v>
       </c>
       <c r="F5">
-        <v>18.72325609719793</v>
+        <v>15.33312346444391</v>
       </c>
       <c r="G5">
-        <v>2.093676015676724</v>
+        <v>18.16969596900685</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.473327433887046</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.166313597772167</v>
       </c>
       <c r="K5">
-        <v>11.37840889601193</v>
+        <v>12.0483815884905</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.5782853901276</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.43152523921374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.74053116302552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.37327984107308</v>
+        <v>12.44333572918297</v>
       </c>
       <c r="C6">
-        <v>7.623461344991359</v>
+        <v>7.803758195065394</v>
       </c>
       <c r="D6">
-        <v>4.383960157885832</v>
+        <v>4.732565088863739</v>
       </c>
       <c r="E6">
-        <v>25.28023672388817</v>
+        <v>25.18810777303323</v>
       </c>
       <c r="F6">
-        <v>18.7077287461617</v>
+        <v>15.32377714021709</v>
       </c>
       <c r="G6">
-        <v>2.093927085989628</v>
+        <v>18.16054641698369</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.46334028191066</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.169051692345695</v>
       </c>
       <c r="K6">
-        <v>11.34608036735518</v>
+        <v>12.0569427360106</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.54808016379517</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.42999174590033</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.7423112470681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.66124555778915</v>
+        <v>12.70779454410124</v>
       </c>
       <c r="C7">
-        <v>7.735826449465747</v>
+        <v>7.933409197818304</v>
       </c>
       <c r="D7">
-        <v>4.415557421099548</v>
+        <v>4.801896617538438</v>
       </c>
       <c r="E7">
-        <v>25.94488755448382</v>
+        <v>25.77037976982531</v>
       </c>
       <c r="F7">
-        <v>18.81708801712669</v>
+        <v>15.38962462028277</v>
       </c>
       <c r="G7">
-        <v>2.092193197754869</v>
+        <v>18.22561429118725</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.532216971427442</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.150385602210171</v>
       </c>
       <c r="K7">
-        <v>11.56858531753139</v>
+        <v>11.99813869618588</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.75602991777859</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.44207678389921</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.73073662854526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.8625977787224</v>
+        <v>13.81182818091798</v>
       </c>
       <c r="C8">
-        <v>8.21321261704988</v>
+        <v>8.481407242254296</v>
       </c>
       <c r="D8">
-        <v>4.551242250304694</v>
+        <v>5.094376844698867</v>
       </c>
       <c r="E8">
-        <v>28.73694928777177</v>
+        <v>28.19797229251404</v>
       </c>
       <c r="F8">
-        <v>19.33902541047091</v>
+        <v>15.70436080319811</v>
       </c>
       <c r="G8">
-        <v>2.08475370852774</v>
+        <v>18.55204267261012</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.82527125320095</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.076646895902599</v>
       </c>
       <c r="K8">
-        <v>12.50324475174457</v>
+        <v>11.75443378259624</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.63058118566671</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.53239962398096</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12.69965495309033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.9714170642414</v>
+        <v>15.74786435700285</v>
       </c>
       <c r="C9">
-        <v>9.079410551631014</v>
+        <v>9.463997479182957</v>
       </c>
       <c r="D9">
-        <v>4.802384985017836</v>
+        <v>5.61718262965841</v>
       </c>
       <c r="E9">
-        <v>33.72736967677534</v>
+        <v>32.44972134857304</v>
       </c>
       <c r="F9">
-        <v>20.50486588838166</v>
+        <v>16.40829686646085</v>
       </c>
       <c r="G9">
-        <v>2.070859944250407</v>
+        <v>19.33854419300145</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>3.362134948801453</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.965451379129214</v>
       </c>
       <c r="K9">
-        <v>14.16398029981447</v>
+        <v>11.33808673042011</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.18463379564811</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.85494140417815</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12.71696460019363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.37316341944418</v>
+        <v>17.02998870237366</v>
       </c>
       <c r="C10">
-        <v>9.671087043072893</v>
+        <v>10.10459226578281</v>
       </c>
       <c r="D10">
-        <v>4.976628607900862</v>
+        <v>5.994146005342627</v>
       </c>
       <c r="E10">
-        <v>37.12083461977185</v>
+        <v>34.38855214522738</v>
       </c>
       <c r="F10">
-        <v>21.44832885818647</v>
+        <v>16.86802964315842</v>
       </c>
       <c r="G10">
-        <v>2.061006708197146</v>
+        <v>19.81179339389654</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>3.700032285042597</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.876742566857995</v>
       </c>
       <c r="K10">
-        <v>15.27864543497708</v>
+        <v>11.0256197804681</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.21699454973972</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.19150222089548</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12.70377447402281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.9796036134516</v>
+        <v>17.58808421956838</v>
       </c>
       <c r="C11">
-        <v>9.93033414407777</v>
+        <v>10.19980184723956</v>
       </c>
       <c r="D11">
-        <v>5.053449659438804</v>
+        <v>6.377306514904426</v>
       </c>
       <c r="E11">
-        <v>38.61092559425666</v>
+        <v>27.74759497522118</v>
       </c>
       <c r="F11">
-        <v>21.89643393575608</v>
+        <v>16.13812485295472</v>
       </c>
       <c r="G11">
-        <v>2.056584127486635</v>
+        <v>18.34531299076494</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>4.109846832439537</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.583938160180968</v>
       </c>
       <c r="K11">
-        <v>15.76301468908267</v>
+        <v>10.47375180935673</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.6021152028193</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.36847484867886</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>12.02211593248758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.20483149316467</v>
+        <v>17.80149157065361</v>
       </c>
       <c r="C12">
-        <v>10.02707462975615</v>
+        <v>10.15276583898834</v>
       </c>
       <c r="D12">
-        <v>5.082172205652792</v>
+        <v>6.626309650831148</v>
       </c>
       <c r="E12">
-        <v>39.1679964025378</v>
+        <v>21.74581739829614</v>
       </c>
       <c r="F12">
-        <v>22.06884926010647</v>
+        <v>15.40615534724462</v>
       </c>
       <c r="G12">
-        <v>2.054916423920865</v>
+        <v>16.98233585760146</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.995044912293335</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.353627586618924</v>
       </c>
       <c r="K12">
-        <v>15.94319921492398</v>
+        <v>10.08292791259542</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.72021837319524</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.4390999135877</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11.44344102214813</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.15651989993623</v>
+        <v>17.76946121983646</v>
       </c>
       <c r="C13">
-        <v>10.00630345795973</v>
+        <v>9.992456218449362</v>
       </c>
       <c r="D13">
-        <v>5.076002904678627</v>
+        <v>6.792361564887821</v>
       </c>
       <c r="E13">
-        <v>39.04833237527086</v>
+        <v>15.7310890498618</v>
       </c>
       <c r="F13">
-        <v>22.03159496016904</v>
+        <v>14.61556602597305</v>
       </c>
       <c r="G13">
-        <v>2.055275307448223</v>
+        <v>15.59757287581639</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>6.084606712797996</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.158451970313608</v>
       </c>
       <c r="K13">
-        <v>15.90453658288369</v>
+        <v>9.797545459574248</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.64338064417791</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.42372621700346</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>10.90973291870393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.99822134877881</v>
+        <v>17.63601388810601</v>
       </c>
       <c r="C14">
-        <v>9.938321715426362</v>
+        <v>9.827967456229025</v>
       </c>
       <c r="D14">
-        <v>5.055820144512797</v>
+        <v>6.872749676675801</v>
       </c>
       <c r="E14">
-        <v>38.65689717110381</v>
+        <v>11.53341829904686</v>
       </c>
       <c r="F14">
-        <v>21.91056389249155</v>
+        <v>14.03271353780244</v>
       </c>
       <c r="G14">
-        <v>2.056446793055104</v>
+        <v>14.61892587361336</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.923166466905069</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.039657017901203</v>
       </c>
       <c r="K14">
-        <v>15.77790322118562</v>
+        <v>9.651963778929497</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.50100043801779</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.37421187159972</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>10.56151745592662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.90068584000278</v>
+        <v>17.55008561217883</v>
       </c>
       <c r="C15">
-        <v>9.896494600891193</v>
+        <v>9.762625866204992</v>
       </c>
       <c r="D15">
-        <v>5.043409237872436</v>
+        <v>6.874522755495756</v>
       </c>
       <c r="E15">
-        <v>38.41621117099194</v>
+        <v>10.51368073592578</v>
       </c>
       <c r="F15">
-        <v>21.83678453103799</v>
+        <v>13.88053162799571</v>
       </c>
       <c r="G15">
-        <v>2.057165228726791</v>
+        <v>14.38037450725664</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>7.116444944724535</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.018829307374073</v>
       </c>
       <c r="K15">
-        <v>15.69991629883195</v>
+        <v>9.638441451464191</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>15.42360229333081</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.34435816833026</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10.48824433787439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.33290883064117</v>
+        <v>17.03177868587548</v>
       </c>
       <c r="C16">
-        <v>9.6539445139194</v>
+        <v>9.521589164822931</v>
       </c>
       <c r="D16">
-        <v>4.97155755892087</v>
+        <v>6.694504249325381</v>
       </c>
       <c r="E16">
-        <v>37.02241759081776</v>
+        <v>10.4271166709866</v>
       </c>
       <c r="F16">
-        <v>21.41942515700924</v>
+        <v>13.81654710170509</v>
       </c>
       <c r="G16">
-        <v>2.061296806408424</v>
+        <v>14.42116985463786</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.845857792427417</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.097900360056054</v>
       </c>
       <c r="K16">
-        <v>15.24653618246166</v>
+        <v>9.83676746079127</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>15.01081993533288</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.18043214114868</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10.60355444347712</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.97664812583596</v>
+        <v>16.69946527355314</v>
       </c>
       <c r="C17">
-        <v>9.502602619644833</v>
+        <v>9.42401040108763</v>
       </c>
       <c r="D17">
-        <v>4.926840878543174</v>
+        <v>6.509213296393964</v>
       </c>
       <c r="E17">
-        <v>36.15398783541054</v>
+        <v>12.65206574544823</v>
       </c>
       <c r="F17">
-        <v>21.1682355852074</v>
+        <v>14.08583603890239</v>
       </c>
       <c r="G17">
-        <v>2.063845630462369</v>
+        <v>14.98059473929569</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>6.14269666878588</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.221081259220814</v>
       </c>
       <c r="K17">
-        <v>14.9626051738155</v>
+        <v>10.06288418534323</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.76662511487413</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.0861091289104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10.87544477952433</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.76879294085379</v>
+        <v>16.49811301929669</v>
       </c>
       <c r="C18">
-        <v>9.414621756038036</v>
+        <v>9.444229488337449</v>
       </c>
       <c r="D18">
-        <v>4.900891959295383</v>
+        <v>6.300875063739793</v>
       </c>
       <c r="E18">
-        <v>35.64940970899494</v>
+        <v>17.34304802567896</v>
       </c>
       <c r="F18">
-        <v>21.02553773837031</v>
+        <v>14.66431392860074</v>
       </c>
       <c r="G18">
-        <v>2.065317368215586</v>
+        <v>16.04318855616705</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>5.064994505498442</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.396718768334579</v>
       </c>
       <c r="K18">
-        <v>14.79715671919437</v>
+        <v>10.34702329679281</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.646997244984</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.03409337943977</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.31411395646576</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.69790914596134</v>
+        <v>16.42219787188885</v>
       </c>
       <c r="C19">
-        <v>9.384673037745216</v>
+        <v>9.561331709590242</v>
       </c>
       <c r="D19">
-        <v>4.892067285968153</v>
+        <v>6.092525231704728</v>
       </c>
       <c r="E19">
-        <v>35.47768088908901</v>
+        <v>23.69525327070799</v>
       </c>
       <c r="F19">
-        <v>20.97752835702368</v>
+        <v>15.44212911418112</v>
       </c>
       <c r="G19">
-        <v>2.065816700844496</v>
+        <v>17.43420695973887</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>4.008823350735788</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.604698438944646</v>
       </c>
       <c r="K19">
-        <v>14.74077069662443</v>
+        <v>10.67246958935875</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.64101928986216</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.01686040111291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>11.86270788169572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.01487682676107</v>
+        <v>16.70287268066302</v>
       </c>
       <c r="C20">
-        <v>9.518809858238784</v>
+        <v>9.939414540704373</v>
       </c>
       <c r="D20">
-        <v>4.931624877486139</v>
+        <v>5.898681628549888</v>
       </c>
       <c r="E20">
-        <v>36.24695590491315</v>
+        <v>33.85173982175804</v>
       </c>
       <c r="F20">
-        <v>21.19479093586214</v>
+        <v>16.73875860927435</v>
       </c>
       <c r="G20">
-        <v>2.063573722388595</v>
+        <v>19.67201438803599</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>3.610140959860185</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.897162525356078</v>
       </c>
       <c r="K20">
-        <v>14.99305130930012</v>
+        <v>11.10257802528522</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.95253117655734</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.09591723110148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12.69998234089623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.04483675984373</v>
+        <v>17.64161170210885</v>
       </c>
       <c r="C21">
-        <v>9.958328429740645</v>
+        <v>10.44528682511582</v>
       </c>
       <c r="D21">
-        <v>5.061758421199238</v>
+        <v>6.137892884321722</v>
       </c>
       <c r="E21">
-        <v>38.77206203528642</v>
+        <v>36.61163926722883</v>
       </c>
       <c r="F21">
-        <v>21.94603949847026</v>
+        <v>17.27733283504235</v>
       </c>
       <c r="G21">
-        <v>2.056102521674207</v>
+        <v>20.37003295830608</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>3.917813242790486</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.882996680147201</v>
       </c>
       <c r="K21">
-        <v>15.81518603907393</v>
+        <v>10.95412470112021</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.72364680051185</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.38865607744137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.83137939000685</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.69226334325219</v>
+        <v>18.22979516538672</v>
       </c>
       <c r="C22">
-        <v>10.23724377404653</v>
+        <v>10.75325777268151</v>
       </c>
       <c r="D22">
-        <v>5.144656923430165</v>
+        <v>6.301082078724598</v>
       </c>
       <c r="E22">
-        <v>40.38071380360994</v>
+        <v>37.90616016923023</v>
       </c>
       <c r="F22">
-        <v>22.45293700929855</v>
+        <v>17.58220096042825</v>
       </c>
       <c r="G22">
-        <v>2.051259805892852</v>
+        <v>20.74238869103372</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>4.096903011246948</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.863507939577275</v>
       </c>
       <c r="K22">
-        <v>16.33366040661252</v>
+        <v>10.84173376821868</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.20463016067055</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.60109722014097</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.88815301861855</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.34904648570396</v>
+        <v>17.91820217000589</v>
       </c>
       <c r="C23">
-        <v>10.08914350881716</v>
+        <v>10.58994059252941</v>
       </c>
       <c r="D23">
-        <v>5.10061441678544</v>
+        <v>6.214555844616882</v>
       </c>
       <c r="E23">
-        <v>39.52577126492096</v>
+        <v>37.22024239492812</v>
       </c>
       <c r="F23">
-        <v>22.18093403333291</v>
+        <v>17.41867382474896</v>
       </c>
       <c r="G23">
-        <v>2.053841337433386</v>
+        <v>20.54209412718166</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>4.001635967120717</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.873444984679775</v>
       </c>
       <c r="K23">
-        <v>16.05865221773221</v>
+        <v>10.90079571529543</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.94967021857338</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.4857228914192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.85677772835889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.99760309336299</v>
+        <v>16.68680829606901</v>
       </c>
       <c r="C24">
-        <v>9.511485593896943</v>
+        <v>9.948415108492409</v>
       </c>
       <c r="D24">
-        <v>4.92946278003346</v>
+        <v>5.874381056619891</v>
       </c>
       <c r="E24">
-        <v>36.20494160676838</v>
+        <v>34.51233915567369</v>
       </c>
       <c r="F24">
-        <v>21.18277992222513</v>
+        <v>16.8174053079144</v>
       </c>
       <c r="G24">
-        <v>2.063696632025971</v>
+        <v>19.81782863321939</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>3.633727397064741</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.920997482386779</v>
       </c>
       <c r="K24">
-        <v>14.97929350562278</v>
+        <v>11.14401246826291</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.94571689096294</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.09147611223176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12.76099119587527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.4270917519347</v>
+        <v>15.24877745952748</v>
       </c>
       <c r="C25">
-        <v>8.852827335621186</v>
+        <v>9.208435313225984</v>
       </c>
       <c r="D25">
-        <v>4.736169439093199</v>
+        <v>5.481363319058008</v>
       </c>
       <c r="E25">
-        <v>32.42702172840705</v>
+        <v>31.35375856066175</v>
       </c>
       <c r="F25">
-        <v>20.17420586115987</v>
+        <v>16.20863557426257</v>
       </c>
       <c r="G25">
-        <v>2.074550955778914</v>
+        <v>19.109726507091</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>3.220817295949478</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.991720069417744</v>
       </c>
       <c r="K25">
-        <v>13.73324788156312</v>
+        <v>11.44363084289228</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.7818904006331</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.75096721822174</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12.70329826562923</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_12/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_12/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.09553658099062</v>
+        <v>14.03586481402447</v>
       </c>
       <c r="C2">
-        <v>8.62381638084284</v>
+        <v>8.859475514032642</v>
       </c>
       <c r="D2">
-        <v>5.170260265607264</v>
+        <v>5.228927363673217</v>
       </c>
       <c r="E2">
-        <v>28.82123386073611</v>
+        <v>28.80940942207979</v>
       </c>
       <c r="F2">
-        <v>15.79552156921025</v>
+        <v>15.55323977980927</v>
       </c>
       <c r="G2">
-        <v>18.65024142670347</v>
+        <v>17.48683071758852</v>
       </c>
       <c r="H2">
-        <v>2.902069049655894</v>
+        <v>2.894016587724781</v>
       </c>
       <c r="J2">
-        <v>8.058844791435051</v>
+        <v>8.543043258516995</v>
       </c>
       <c r="K2">
-        <v>11.69239546157652</v>
+        <v>11.47748100035295</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.62727835715248</v>
       </c>
       <c r="M2">
-        <v>12.85682415237515</v>
+        <v>6.359689952421459</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.90280323843577</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.69631159859663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.53009942282575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.25538196128783</v>
+        <v>13.22639075226923</v>
       </c>
       <c r="C3">
-        <v>8.203917129091161</v>
+        <v>8.335106611501965</v>
       </c>
       <c r="D3">
-        <v>4.94637701486532</v>
+        <v>4.987178746396889</v>
       </c>
       <c r="E3">
-        <v>26.97497539303838</v>
+        <v>26.97269879139952</v>
       </c>
       <c r="F3">
-        <v>15.53773196222414</v>
+        <v>15.33708310006864</v>
       </c>
       <c r="G3">
-        <v>18.37645197346792</v>
+        <v>17.28972542622215</v>
       </c>
       <c r="H3">
-        <v>2.676434969199296</v>
+        <v>2.674910176517252</v>
       </c>
       <c r="J3">
-        <v>8.112947474354479</v>
+        <v>8.57270681898359</v>
       </c>
       <c r="K3">
-        <v>11.87686018500337</v>
+        <v>11.66951604956432</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.82625414725564</v>
       </c>
       <c r="M3">
-        <v>12.18856852285872</v>
+        <v>6.464159632659248</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.22287850143036</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.71178731430654</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.56840780801751</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.71085476644688</v>
+        <v>12.70203900637178</v>
       </c>
       <c r="C4">
-        <v>7.934913382672709</v>
+        <v>7.998024558564622</v>
       </c>
       <c r="D4">
-        <v>4.802700647577463</v>
+        <v>4.832028705950835</v>
       </c>
       <c r="E4">
-        <v>25.77711545699737</v>
+        <v>25.78101090419552</v>
       </c>
       <c r="F4">
-        <v>15.39040830679038</v>
+        <v>15.21376762562017</v>
       </c>
       <c r="G4">
-        <v>18.22639685307305</v>
+        <v>17.1879137125497</v>
       </c>
       <c r="H4">
-        <v>2.533016897107711</v>
+        <v>2.535591853477313</v>
       </c>
       <c r="J4">
-        <v>8.150171801772542</v>
+        <v>8.593016871160252</v>
       </c>
       <c r="K4">
-        <v>11.99745904937946</v>
+        <v>11.79298472699682</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.95455876806531</v>
       </c>
       <c r="M4">
-        <v>11.75843997386254</v>
+        <v>6.552580336081676</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.78527558733842</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.73061182924335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.59964229627012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.48180026946539</v>
+        <v>12.48155509496288</v>
       </c>
       <c r="C5">
-        <v>7.822573319798315</v>
+        <v>7.856977856969016</v>
       </c>
       <c r="D5">
-        <v>4.742630273859329</v>
+        <v>4.767163388356148</v>
       </c>
       <c r="E5">
-        <v>25.27282094254624</v>
+        <v>25.2793206846886</v>
       </c>
       <c r="F5">
-        <v>15.33312346444391</v>
+        <v>15.16585370118688</v>
       </c>
       <c r="G5">
-        <v>18.16969596900685</v>
+        <v>17.15108190566453</v>
       </c>
       <c r="H5">
-        <v>2.473327433887046</v>
+        <v>2.477597524452133</v>
       </c>
       <c r="J5">
-        <v>8.166313597772167</v>
+        <v>8.601806628871888</v>
       </c>
       <c r="K5">
-        <v>12.0483815884905</v>
+        <v>11.84465853359655</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.00839977875251</v>
       </c>
       <c r="M5">
-        <v>11.5782853901276</v>
+        <v>6.594439126026877</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.60200903586115</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.74053116302552</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.61422477655353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.44333572918297</v>
+        <v>12.44453515848029</v>
       </c>
       <c r="C6">
-        <v>7.803758195065394</v>
+        <v>7.833338713678879</v>
       </c>
       <c r="D6">
-        <v>4.732565088863739</v>
+        <v>4.756295050239425</v>
       </c>
       <c r="E6">
-        <v>25.18810777303323</v>
+        <v>25.19504569980112</v>
       </c>
       <c r="F6">
-        <v>15.32377714021709</v>
+        <v>15.15803790553097</v>
       </c>
       <c r="G6">
-        <v>18.16054641698369</v>
+        <v>17.14524186827178</v>
       </c>
       <c r="H6">
-        <v>2.46334028191066</v>
+        <v>2.467893364330228</v>
       </c>
       <c r="J6">
-        <v>8.169051692345695</v>
+        <v>8.603296762955354</v>
       </c>
       <c r="K6">
-        <v>12.0569427360106</v>
+        <v>11.85331998036248</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.01743440797186</v>
       </c>
       <c r="M6">
-        <v>11.54808016379517</v>
+        <v>6.601733207177389</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.57128346203508</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.7423112470681</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.61675571303099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.70779454410124</v>
+        <v>12.69967428302715</v>
       </c>
       <c r="C7">
-        <v>7.933409197818304</v>
+        <v>7.991655696601358</v>
       </c>
       <c r="D7">
-        <v>4.801896617538438</v>
+        <v>4.834371765475398</v>
       </c>
       <c r="E7">
-        <v>25.77037976982531</v>
+        <v>25.77382774128407</v>
       </c>
       <c r="F7">
-        <v>15.38962462028277</v>
+        <v>15.19932650304484</v>
       </c>
       <c r="G7">
-        <v>18.22561429118725</v>
+        <v>17.2688135522741</v>
       </c>
       <c r="H7">
-        <v>2.532216971427442</v>
+        <v>2.534496076084648</v>
       </c>
       <c r="J7">
-        <v>8.150385602210171</v>
+        <v>8.560684445461277</v>
       </c>
       <c r="K7">
-        <v>11.99813869618588</v>
+        <v>11.78826753107241</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.95012664249311</v>
       </c>
       <c r="M7">
-        <v>11.75602991777859</v>
+        <v>6.55027418221753</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.78164228902503</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.73073662854526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.59039812785522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.81182818091798</v>
+        <v>13.76431132733446</v>
       </c>
       <c r="C8">
-        <v>8.481407242254296</v>
+        <v>8.667892256835719</v>
       </c>
       <c r="D8">
-        <v>5.094376844698867</v>
+        <v>5.157203303171103</v>
       </c>
       <c r="E8">
-        <v>28.19797229251404</v>
+        <v>28.18793868923516</v>
       </c>
       <c r="F8">
-        <v>15.70436080319811</v>
+        <v>15.43193416395669</v>
       </c>
       <c r="G8">
-        <v>18.55204267261012</v>
+        <v>17.68227968054573</v>
       </c>
       <c r="H8">
-        <v>2.82527125320095</v>
+        <v>2.818472470013883</v>
       </c>
       <c r="J8">
-        <v>8.076646895902599</v>
+        <v>8.447093511415741</v>
       </c>
       <c r="K8">
-        <v>11.75443378259624</v>
+        <v>11.52473186148112</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.67943961038206</v>
       </c>
       <c r="M8">
-        <v>12.63058118566671</v>
+        <v>6.378403931336603</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.66897563210783</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.69965495309033</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.51052882175263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.74786435700285</v>
+        <v>15.63102872186394</v>
       </c>
       <c r="C9">
-        <v>9.463997479182957</v>
+        <v>9.886594974880722</v>
       </c>
       <c r="D9">
-        <v>5.61718262965841</v>
+        <v>5.723386588523152</v>
       </c>
       <c r="E9">
-        <v>32.44972134857304</v>
+        <v>32.41699615726784</v>
       </c>
       <c r="F9">
-        <v>16.40829686646085</v>
+        <v>16.01445836609956</v>
       </c>
       <c r="G9">
-        <v>19.33854419300145</v>
+        <v>18.34869815545104</v>
       </c>
       <c r="H9">
-        <v>3.362134948801453</v>
+        <v>3.339348960160871</v>
       </c>
       <c r="J9">
-        <v>7.965451379129214</v>
+        <v>8.35631886894153</v>
       </c>
       <c r="K9">
-        <v>11.33808673042011</v>
+        <v>11.07345554838405</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.21561186006752</v>
       </c>
       <c r="M9">
-        <v>14.18463379564811</v>
+        <v>6.254981762471104</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.24953843407504</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.71696460019363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12.45339372414348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.02998870237366</v>
+        <v>16.87316882084091</v>
       </c>
       <c r="C10">
-        <v>10.10459226578281</v>
+        <v>10.64961841648837</v>
       </c>
       <c r="D10">
-        <v>5.994146005342627</v>
+        <v>6.143608744509383</v>
       </c>
       <c r="E10">
-        <v>34.38855214522738</v>
+        <v>34.33821160997517</v>
       </c>
       <c r="F10">
-        <v>16.86802964315842</v>
+        <v>16.31602686578006</v>
       </c>
       <c r="G10">
-        <v>19.81179339389654</v>
+        <v>19.19669033325863</v>
       </c>
       <c r="H10">
-        <v>3.700032285042597</v>
+        <v>3.664790576152548</v>
       </c>
       <c r="J10">
-        <v>7.876742566857995</v>
+        <v>8.100756518515572</v>
       </c>
       <c r="K10">
-        <v>11.0256197804681</v>
+        <v>10.70244943692069</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.859024980004857</v>
       </c>
       <c r="M10">
-        <v>15.21699454973972</v>
+        <v>6.229947925077668</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.29226590751128</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.70377447402281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>12.3318444403152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.58808421956838</v>
+        <v>17.44088292610718</v>
       </c>
       <c r="C11">
-        <v>10.19980184723956</v>
+        <v>10.67269073105122</v>
       </c>
       <c r="D11">
-        <v>6.377306514904426</v>
+        <v>6.56009225443391</v>
       </c>
       <c r="E11">
-        <v>27.74759497522118</v>
+        <v>27.68790571725911</v>
       </c>
       <c r="F11">
-        <v>16.13812485295472</v>
+        <v>15.47006048034473</v>
       </c>
       <c r="G11">
-        <v>18.34531299076494</v>
+        <v>18.74855230110263</v>
       </c>
       <c r="H11">
-        <v>4.109846832439537</v>
+        <v>4.075165508852631</v>
       </c>
       <c r="J11">
-        <v>7.583938160180968</v>
+        <v>7.555055867205922</v>
       </c>
       <c r="K11">
-        <v>10.47375180935673</v>
+        <v>10.16338280741275</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.485029733846511</v>
       </c>
       <c r="M11">
-        <v>15.6021152028193</v>
+        <v>5.843850133211843</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.65857566360814</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12.02211593248758</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.58681408124335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.80149157065361</v>
+        <v>17.66851967976483</v>
       </c>
       <c r="C12">
-        <v>10.15276583898834</v>
+        <v>10.55260127770394</v>
       </c>
       <c r="D12">
-        <v>6.626309650831148</v>
+        <v>6.8187706517365</v>
       </c>
       <c r="E12">
-        <v>21.74581739829614</v>
+        <v>21.67985795250432</v>
       </c>
       <c r="F12">
-        <v>15.40615534724462</v>
+        <v>14.72124822382642</v>
       </c>
       <c r="G12">
-        <v>16.98233585760146</v>
+        <v>17.88512393221781</v>
       </c>
       <c r="H12">
-        <v>4.995044912293335</v>
+        <v>4.966957772802462</v>
       </c>
       <c r="J12">
-        <v>7.353627586618924</v>
+        <v>7.296997224527971</v>
       </c>
       <c r="K12">
-        <v>10.08292791259542</v>
+        <v>9.822338654600552</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.280280604179723</v>
       </c>
       <c r="M12">
-        <v>15.72021837319524</v>
+        <v>5.531735379985184</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.76145418396734</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11.44344102214813</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.01768387634308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.76946121983646</v>
+        <v>17.65389408787217</v>
       </c>
       <c r="C13">
-        <v>9.992456218449362</v>
+        <v>10.32141170812289</v>
       </c>
       <c r="D13">
-        <v>6.792361564887821</v>
+        <v>6.969183172421663</v>
       </c>
       <c r="E13">
-        <v>15.7310890498618</v>
+        <v>15.65896136252812</v>
       </c>
       <c r="F13">
-        <v>14.61556602597305</v>
+        <v>14.020120811724</v>
       </c>
       <c r="G13">
-        <v>15.59757287581639</v>
+        <v>16.43459300433643</v>
       </c>
       <c r="H13">
-        <v>6.084606712797996</v>
+        <v>6.063729458430169</v>
       </c>
       <c r="J13">
-        <v>7.158451970313608</v>
+        <v>7.224868282884691</v>
       </c>
       <c r="K13">
-        <v>9.797545459574248</v>
+        <v>9.618894239842929</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.175173697684244</v>
       </c>
       <c r="M13">
-        <v>15.64338064417791</v>
+        <v>5.279922312536813</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.67298419135539</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10.90973291870393</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.56680486674184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.63601388810601</v>
+        <v>17.53421897621227</v>
       </c>
       <c r="C14">
-        <v>9.827967456229025</v>
+        <v>10.10713981401246</v>
       </c>
       <c r="D14">
-        <v>6.872749676675801</v>
+        <v>7.026964822568947</v>
       </c>
       <c r="E14">
-        <v>11.53341829904686</v>
+        <v>11.4536217191384</v>
       </c>
       <c r="F14">
-        <v>14.03271353780244</v>
+        <v>13.54558033652639</v>
       </c>
       <c r="G14">
-        <v>14.61892587361336</v>
+        <v>15.16401813167253</v>
       </c>
       <c r="H14">
-        <v>6.923166466905069</v>
+        <v>6.906714934122345</v>
       </c>
       <c r="J14">
-        <v>7.039657017901203</v>
+        <v>7.235616967233705</v>
       </c>
       <c r="K14">
-        <v>9.651963778929497</v>
+        <v>9.53741942338883</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.13924218469119</v>
       </c>
       <c r="M14">
-        <v>15.50100043801779</v>
+        <v>5.138989974680936</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.52381550185416</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10.56151745592662</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.30392642251958</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.55008561217883</v>
+        <v>17.45251941954465</v>
       </c>
       <c r="C15">
-        <v>9.762625866204992</v>
+        <v>10.0292068394916</v>
       </c>
       <c r="D15">
-        <v>6.874522755495756</v>
+        <v>7.01821047503232</v>
       </c>
       <c r="E15">
-        <v>10.51368073592578</v>
+        <v>10.43230177972113</v>
       </c>
       <c r="F15">
-        <v>13.88053162799571</v>
+        <v>13.43896460823698</v>
       </c>
       <c r="G15">
-        <v>14.38037450725664</v>
+        <v>14.75327891599067</v>
       </c>
       <c r="H15">
-        <v>7.116444944724535</v>
+        <v>7.101232729955825</v>
       </c>
       <c r="J15">
-        <v>7.018829307374073</v>
+        <v>7.265021148421878</v>
       </c>
       <c r="K15">
-        <v>9.638441451464191</v>
+        <v>9.542287325399341</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.144940455328305</v>
       </c>
       <c r="M15">
-        <v>15.42360229333081</v>
+        <v>5.119455162659684</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.44540016908428</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10.48824433787439</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.262449491469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.03177868587548</v>
+        <v>16.94332557994983</v>
       </c>
       <c r="C16">
-        <v>9.521589164822931</v>
+        <v>9.779774999956361</v>
       </c>
       <c r="D16">
-        <v>6.694504249325381</v>
+        <v>6.796315830742142</v>
       </c>
       <c r="E16">
-        <v>10.4271166709866</v>
+        <v>10.36087989550947</v>
       </c>
       <c r="F16">
-        <v>13.81654710170509</v>
+        <v>13.53386706412293</v>
       </c>
       <c r="G16">
-        <v>14.42116985463786</v>
+        <v>13.98170150969946</v>
       </c>
       <c r="H16">
-        <v>6.845857792427417</v>
+        <v>6.833599397803845</v>
       </c>
       <c r="J16">
-        <v>7.097900360056054</v>
+        <v>7.531581403718237</v>
       </c>
       <c r="K16">
-        <v>9.83676746079127</v>
+        <v>9.768652906508461</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.285113898820564</v>
       </c>
       <c r="M16">
-        <v>15.01081993533288</v>
+        <v>5.247552581920126</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>15.03797916870656</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10.60355444347712</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.47114196447914</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.69946527355314</v>
+        <v>16.61145315527278</v>
       </c>
       <c r="C17">
-        <v>9.42401040108763</v>
+        <v>9.697498268899841</v>
       </c>
       <c r="D17">
-        <v>6.509213296393964</v>
+        <v>6.595974197970407</v>
       </c>
       <c r="E17">
-        <v>12.65206574544823</v>
+        <v>12.6002930754701</v>
       </c>
       <c r="F17">
-        <v>14.08583603890239</v>
+        <v>13.84933920080542</v>
       </c>
       <c r="G17">
-        <v>14.98059473929569</v>
+        <v>14.18793953398815</v>
       </c>
       <c r="H17">
-        <v>6.14269666878588</v>
+        <v>6.130829807155386</v>
       </c>
       <c r="J17">
-        <v>7.221081259220814</v>
+        <v>7.731916523294393</v>
       </c>
       <c r="K17">
-        <v>10.06288418534323</v>
+        <v>9.984693060633445</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.423857003812827</v>
       </c>
       <c r="M17">
-        <v>14.76662511487413</v>
+        <v>5.407839465048945</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.8003575530441</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10.87544477952433</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.76265299490217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.49811301929669</v>
+        <v>16.40151628975769</v>
       </c>
       <c r="C18">
-        <v>9.444229488337449</v>
+        <v>9.763934259520248</v>
       </c>
       <c r="D18">
-        <v>6.300875063739793</v>
+        <v>6.387783470612331</v>
       </c>
       <c r="E18">
-        <v>17.34304802567896</v>
+        <v>17.30124022748505</v>
       </c>
       <c r="F18">
-        <v>14.66431392860074</v>
+        <v>14.41091079221879</v>
       </c>
       <c r="G18">
-        <v>16.04318855616705</v>
+        <v>15.06622991408208</v>
       </c>
       <c r="H18">
-        <v>5.064994505498442</v>
+        <v>5.050972280490243</v>
       </c>
       <c r="J18">
-        <v>7.396718768334579</v>
+        <v>7.925607272499954</v>
       </c>
       <c r="K18">
-        <v>10.34702329679281</v>
+        <v>10.23251885487234</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.588827866189398</v>
       </c>
       <c r="M18">
-        <v>14.646997244984</v>
+        <v>5.619070212285547</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.6908443699995</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.31411395646576</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.17905758589497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.42219787188885</v>
+        <v>16.30962739179724</v>
       </c>
       <c r="C19">
-        <v>9.561331709590242</v>
+        <v>9.952056477697486</v>
       </c>
       <c r="D19">
-        <v>6.092525231704728</v>
+        <v>6.188759441088604</v>
       </c>
       <c r="E19">
-        <v>23.69525327070799</v>
+        <v>23.65697916548843</v>
       </c>
       <c r="F19">
-        <v>15.44212911418112</v>
+        <v>15.13373662721932</v>
       </c>
       <c r="G19">
-        <v>17.43420695973887</v>
+        <v>16.34910707585747</v>
       </c>
       <c r="H19">
-        <v>4.008823350735788</v>
+        <v>3.98940260837662</v>
       </c>
       <c r="J19">
-        <v>7.604698438944646</v>
+        <v>8.117211154514452</v>
       </c>
       <c r="K19">
-        <v>10.67246958935875</v>
+        <v>10.50237470760545</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.771387892752006</v>
       </c>
       <c r="M19">
-        <v>14.64101928986216</v>
+        <v>5.868476259157162</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.69756189115721</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11.86270788169572</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.67894686677718</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.70287268066302</v>
+        <v>16.55457994832092</v>
       </c>
       <c r="C20">
-        <v>9.939414540704373</v>
+        <v>10.46588999697884</v>
       </c>
       <c r="D20">
-        <v>5.898681628549888</v>
+        <v>6.027136740319198</v>
       </c>
       <c r="E20">
-        <v>33.85173982175804</v>
+        <v>33.80723946564801</v>
       </c>
       <c r="F20">
-        <v>16.73875860927435</v>
+        <v>16.27404767069841</v>
       </c>
       <c r="G20">
-        <v>19.67201438803599</v>
+        <v>18.68525547560855</v>
       </c>
       <c r="H20">
-        <v>3.610140959860185</v>
+        <v>3.579025936847708</v>
       </c>
       <c r="J20">
-        <v>7.897162525356078</v>
+        <v>8.273345278307566</v>
       </c>
       <c r="K20">
-        <v>11.10257802528522</v>
+        <v>10.81498437805518</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.960641219996646</v>
       </c>
       <c r="M20">
-        <v>14.95253117655734</v>
+        <v>6.245130775560435</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.02839253089321</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12.69998234089623</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>12.39039852416191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.64161170210885</v>
+        <v>17.46944837031955</v>
       </c>
       <c r="C21">
-        <v>10.44528682511582</v>
+        <v>11.01021679118729</v>
       </c>
       <c r="D21">
-        <v>6.137892884321722</v>
+        <v>6.351391871045122</v>
       </c>
       <c r="E21">
-        <v>36.61163926722883</v>
+        <v>36.54717781541991</v>
       </c>
       <c r="F21">
-        <v>17.27733283504235</v>
+        <v>16.44012259926097</v>
       </c>
       <c r="G21">
-        <v>20.37003295830608</v>
+        <v>21.09434737654113</v>
       </c>
       <c r="H21">
-        <v>3.917813242790486</v>
+        <v>3.872362700206967</v>
       </c>
       <c r="J21">
-        <v>7.882996680147201</v>
+        <v>7.607620111786809</v>
       </c>
       <c r="K21">
-        <v>10.95412470112021</v>
+        <v>10.49987967257743</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.677728065831269</v>
       </c>
       <c r="M21">
-        <v>15.72364680051185</v>
+        <v>6.225210635109748</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.79292800439455</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.83137939000685</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>12.2475763917783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.22979516538672</v>
+        <v>18.04489999092237</v>
       </c>
       <c r="C22">
-        <v>10.75325777268151</v>
+        <v>11.33213528590751</v>
       </c>
       <c r="D22">
-        <v>6.301082078724598</v>
+        <v>6.571402701772216</v>
       </c>
       <c r="E22">
-        <v>37.90616016923023</v>
+        <v>37.82909697182627</v>
       </c>
       <c r="F22">
-        <v>17.58220096042825</v>
+        <v>16.49010182040308</v>
       </c>
       <c r="G22">
-        <v>20.74238869103372</v>
+        <v>22.69160271751797</v>
       </c>
       <c r="H22">
-        <v>4.096903011246948</v>
+        <v>4.042470244587379</v>
       </c>
       <c r="J22">
-        <v>7.863507939577275</v>
+        <v>7.213449299372736</v>
       </c>
       <c r="K22">
-        <v>10.84173376821868</v>
+        <v>10.27069180661353</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.486790278811021</v>
       </c>
       <c r="M22">
-        <v>16.20463016067055</v>
+        <v>6.202552224232112</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.26803548538895</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12.88815301861855</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.11234655204065</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.91820217000589</v>
+        <v>17.73870041229479</v>
       </c>
       <c r="C23">
-        <v>10.58994059252941</v>
+        <v>11.17051042301043</v>
       </c>
       <c r="D23">
-        <v>6.214555844616882</v>
+        <v>6.447663668743425</v>
       </c>
       <c r="E23">
-        <v>37.22024239492812</v>
+        <v>37.15060550573839</v>
       </c>
       <c r="F23">
-        <v>17.41867382474896</v>
+        <v>16.49546853273532</v>
       </c>
       <c r="G23">
-        <v>20.54209412718166</v>
+        <v>21.63634711635103</v>
       </c>
       <c r="H23">
-        <v>4.001635967120717</v>
+        <v>3.952492189504575</v>
       </c>
       <c r="J23">
-        <v>7.873444984679775</v>
+        <v>7.471181574949079</v>
       </c>
       <c r="K23">
-        <v>10.90079571529543</v>
+        <v>10.4068215428865</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.595480303304607</v>
       </c>
       <c r="M23">
-        <v>15.94967021857338</v>
+        <v>6.227824291791189</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.01838811051519</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12.85677772835889</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>12.20836622869873</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.68680829606901</v>
+        <v>16.53695199100132</v>
       </c>
       <c r="C24">
-        <v>9.948415108492409</v>
+        <v>10.48195269991204</v>
       </c>
       <c r="D24">
-        <v>5.874381056619891</v>
+        <v>6.003155721072009</v>
       </c>
       <c r="E24">
-        <v>34.51233915567369</v>
+        <v>34.46783070318255</v>
       </c>
       <c r="F24">
-        <v>16.8174053079144</v>
+        <v>16.34921519146154</v>
       </c>
       <c r="G24">
-        <v>19.81782863321939</v>
+        <v>18.80826308922075</v>
       </c>
       <c r="H24">
-        <v>3.633727397064741</v>
+        <v>3.602505804971348</v>
       </c>
       <c r="J24">
-        <v>7.920997482386779</v>
+        <v>8.299414234073492</v>
       </c>
       <c r="K24">
-        <v>11.14401246826291</v>
+        <v>10.85048582425475</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.985619982297424</v>
       </c>
       <c r="M24">
-        <v>14.94571689096294</v>
+        <v>6.275247591796229</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.02284823379665</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.76099119587527</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.44759598235445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.24877745952748</v>
+        <v>15.14893859213599</v>
       </c>
       <c r="C25">
-        <v>9.208435313225984</v>
+        <v>9.576167690417998</v>
       </c>
       <c r="D25">
-        <v>5.481363319058008</v>
+        <v>5.572201167217447</v>
       </c>
       <c r="E25">
-        <v>31.35375856066175</v>
+        <v>31.32756757063818</v>
       </c>
       <c r="F25">
-        <v>16.20863557426257</v>
+        <v>15.86724317008588</v>
       </c>
       <c r="G25">
-        <v>19.109726507091</v>
+        <v>18.03899545254331</v>
       </c>
       <c r="H25">
-        <v>3.220817295949478</v>
+        <v>3.202679115947663</v>
       </c>
       <c r="J25">
-        <v>7.991720069417744</v>
+        <v>8.423597165674359</v>
       </c>
       <c r="K25">
-        <v>11.44363084289228</v>
+        <v>11.19793336119699</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.34162552106368</v>
       </c>
       <c r="M25">
-        <v>13.7818904006331</v>
+        <v>6.271618149163944</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.84140287249435</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.70329826562923</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.47456448353679</v>
       </c>
     </row>
   </sheetData>
